--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/122.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/122.xlsx
@@ -479,13 +479,13 @@
         <v>-19.93188590123205</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.17736978936906</v>
+        <v>-9.835123900783499</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.158075636108888</v>
+        <v>-3.045377093247309</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.110471664089045</v>
+        <v>-6.626540874150324</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.99164083755468</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.4774060935929</v>
+        <v>-10.12630980828633</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.07488714385256</v>
+        <v>-2.991174959482564</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.101817651910664</v>
+        <v>-6.591859363922592</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.04830802053099</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.30228663413585</v>
+        <v>-10.95100705658949</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.841660861030052</v>
+        <v>-2.797592169664802</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.968158332199483</v>
+        <v>-6.470100947494539</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-20.03473391880927</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.02330593623538</v>
+        <v>-11.68032687869069</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.83868890828498</v>
+        <v>-2.767977380636817</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.228197651241846</v>
+        <v>-6.713879626407479</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.90124035907308</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.89156127609297</v>
+        <v>-12.53575176176339</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.610503162056536</v>
+        <v>-2.568725623688588</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.734395264960463</v>
+        <v>-6.222067270158039</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.60583442571546</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.5636284578673</v>
+        <v>-13.21863318568498</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.548825323369165</v>
+        <v>-2.507584569417728</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.801257655573159</v>
+        <v>-6.309144176358359</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-19.09903816992284</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.15872599123512</v>
+        <v>-13.79081918907977</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.459823848651111</v>
+        <v>-2.415859895708595</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.268610406760375</v>
+        <v>-5.795716428117229</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-18.37550883307508</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.17426973806212</v>
+        <v>-14.79607238587318</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.299102738966082</v>
+        <v>-2.232161794536336</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.060076207097363</v>
+        <v>-5.588779489400907</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.43530285325667</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.91279344906105</v>
+        <v>-15.54495210841991</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.258712984699357</v>
+        <v>-2.20109375989292</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.700365186520939</v>
+        <v>-5.210202460429556</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.31220726191181</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.62928281437735</v>
+        <v>-16.25012972408096</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.041249834498287</v>
+        <v>-1.993227267674836</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.451192478837208</v>
+        <v>-4.975012332180789</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.07441733816021</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.2845394793029</v>
+        <v>-16.90085645222327</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.214840677876733</v>
+        <v>-2.116648406563787</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.943289682395287</v>
+        <v>-4.453480448480631</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.7873605050312</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.24444093905257</v>
+        <v>-17.87275046137596</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.979506534296707</v>
+        <v>-1.901751347719696</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.254542906800604</v>
+        <v>-3.776320360900876</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.55614701020123</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.84328287103312</v>
+        <v>-18.46282055045256</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.730922980240854</v>
+        <v>-1.647092965145282</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.013880195963996</v>
+        <v>-3.508098352582434</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.45690061190822</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.77202465001949</v>
+        <v>-19.3939713131618</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.606598472455823</v>
+        <v>-1.511116307831115</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.419594385372366</v>
+        <v>-2.917556940603538</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.55315865501113</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.71505013140617</v>
+        <v>-20.31479224892892</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.429289415070327</v>
+        <v>-1.338166987291914</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.943872469315407</v>
+        <v>-2.485065808529959</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.87684247689241</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.50938632941937</v>
+        <v>-21.11208730738436</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.281163100719038</v>
+        <v>-1.165715174260698</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.478428010989204</v>
+        <v>-1.997063312407461</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.409286373331408</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.47596486361833</v>
+        <v>-22.0702867677646</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.168647850097244</v>
+        <v>-1.063870150454911</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.088159555580191</v>
+        <v>-1.617543637631506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.133511126416421</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.33457117628156</v>
+        <v>-22.91585314679748</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.095985569325665</v>
+        <v>-0.9720931075344109</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.750129388509666</v>
+        <v>-1.274289641727132</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.995791286846574</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.06370770614297</v>
+        <v>-23.61077948933346</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8873335389370763</v>
+        <v>-0.7620794776502831</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.418304972986119</v>
+        <v>-0.9343610907445564</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.955522169890985</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.66990751232057</v>
+        <v>-24.22123429393462</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6491976425489209</v>
+        <v>-0.4953761764614813</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.055059030642429</v>
+        <v>-0.5676980573591761</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.971113626471604</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.37202152911666</v>
+        <v>-24.89627342845402</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5320084398126309</v>
+        <v>-0.352774813909401</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.7952291884455335</v>
+        <v>-0.3673465469722421</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.996810383131249</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.7755393950015</v>
+        <v>-25.31200641289018</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4774397215683166</v>
+        <v>-0.2900626832975331</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6314444798955403</v>
+        <v>-0.1703597584156317</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.015656083695189</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.26017716929367</v>
+        <v>-25.75443460282063</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5045015115421644</v>
+        <v>-0.3260796084151215</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5677635188733847</v>
+        <v>-0.135311663708331</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.00443705154402</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.51461298271978</v>
+        <v>-26.00694584772901</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1852980759580411</v>
+        <v>-0.02322845908031412</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.5525371706684573</v>
+        <v>-0.1246938061036912</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.970913567675106</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.54736992442977</v>
+        <v>-26.02041782735314</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2376934719306288</v>
+        <v>-0.05844675372455725</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.7213231389039898</v>
+        <v>-0.286959807524044</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.923463439339706</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.59242053850815</v>
+        <v>-26.03810552849231</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4220985574563405</v>
+        <v>-0.2536398967918512</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6750418483584881</v>
+        <v>-0.2608275710519588</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.87423099287869</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.63354346173401</v>
+        <v>-26.08252771203429</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1849838606898397</v>
+        <v>-0.04668986577268724</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.997177959779158</v>
+        <v>-0.5596462911115145</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.844977716838207</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.74685734282916</v>
+        <v>-26.18311587476727</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.254700373322031</v>
+        <v>-0.1017037223136202</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.036703622058329</v>
+        <v>-0.6233010675279868</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.838893471257199</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.47588595091395</v>
+        <v>-25.91959400316901</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3304655298670998</v>
+        <v>-0.2035094692108821</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.15260977911613</v>
+        <v>-0.7654572917834483</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.87055819551844</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.07740862162317</v>
+        <v>-25.49588780630223</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3368022044424952</v>
+        <v>-0.2117445276983278</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.674966477895317</v>
+        <v>-1.287683067534218</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.937044097846819</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.16974863356587</v>
+        <v>-25.5724385010178</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2338312425923197</v>
+        <v>-0.1278752356942306</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.86310286973092</v>
+        <v>-1.456194097410074</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.031755979601645</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.7541727567638</v>
+        <v>-25.14806459670609</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2813563019077853</v>
+        <v>-0.1748504182903437</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.353815472541655</v>
+        <v>-1.960784541233038</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.149692610368808</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.1029485211135</v>
+        <v>-24.51300935506533</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.30369177055577</v>
+        <v>-0.2208305858704857</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.360309254751151</v>
+        <v>-1.99159072981962</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.271406893813776</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.74344697738255</v>
+        <v>-24.15337688830595</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5057452803121284</v>
+        <v>-0.4184327126606572</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.527288485194525</v>
+        <v>-2.1341920923717</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.394558577110189</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.92779651034301</v>
+        <v>-23.36070341275365</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5926127096669809</v>
+        <v>-0.5140850772223079</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.683977165604303</v>
+        <v>-2.303174445149859</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.505184591438844</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.12417786961502</v>
+        <v>-22.5670741990939</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5497092332546445</v>
+        <v>-0.4643474187265905</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.871170911635302</v>
+        <v>-2.467941076412981</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.599467408537004</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.77198183086975</v>
+        <v>-22.19343296829388</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5929007403294988</v>
+        <v>-0.5234329814513002</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.150154792889643</v>
+        <v>-2.741033421388545</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.679727624664929</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.10089657180856</v>
+        <v>-21.53621245794207</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5617410595661908</v>
+        <v>-0.4622788348775978</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.336641554567189</v>
+        <v>-2.931814458398177</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.741319492887879</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.71484383791458</v>
+        <v>-21.14064161988216</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7085450513304652</v>
+        <v>-0.6441701982576981</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.511999858829268</v>
+        <v>-3.125344879004572</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.799685813165262</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.04366693273349</v>
+        <v>-20.51141245300596</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5287615487078828</v>
+        <v>-0.4391840126647931</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.442492823042544</v>
+        <v>-3.038045403655943</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.856680611781611</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.55456468317229</v>
+        <v>-20.0107758846412</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2878631764201232</v>
+        <v>-0.193140365360235</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.573795528242215</v>
+        <v>-3.14808620904065</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.924786145239056</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.63706919232697</v>
+        <v>-19.0914998406094</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2435064543923552</v>
+        <v>-0.1669426673739412</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.575130943132071</v>
+        <v>-3.126562463168853</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.01656852200649</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.29881645610814</v>
+        <v>-18.75674274924931</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1987176863708103</v>
+        <v>-0.117244285786749</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.811302994093968</v>
+        <v>-3.358126023530462</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.13352616444135</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.71098515081748</v>
+        <v>-18.18378429998685</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.222964631233687</v>
+        <v>-0.144345352669122</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.878361769249289</v>
+        <v>-3.42835313597348</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.29378456024992</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.2337838045394</v>
+        <v>-17.72050007162953</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1479064590420715</v>
+        <v>-0.06867184224394531</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.668348139365161</v>
+        <v>-3.245820249754135</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.49325585090824</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.54457879834526</v>
+        <v>-17.03591664833852</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.2064421450474287</v>
+        <v>-0.1215385611188352</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.055723195846152</v>
+        <v>-3.625641047495451</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.73942118846722</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.87045612502478</v>
+        <v>-16.37734763079402</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1503285350677908</v>
+        <v>-0.07423607095167889</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.890550703194936</v>
+        <v>-3.484008515353658</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.03193396873437</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.19059902305963</v>
+        <v>-15.73338962322088</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.06829216546153526</v>
+        <v>0.01552475733119504</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.205695524898124</v>
+        <v>-3.783652050492242</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.36164930459518</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.43870807085931</v>
+        <v>-15.01573504295166</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.02949967214150091</v>
+        <v>0.09070076024838612</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.180649949561902</v>
+        <v>-3.745579633828503</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.73613814083078</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.62249463479758</v>
+        <v>-14.19805526897166</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01477849606921665</v>
+        <v>0.1184302576671619</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.380242106384016</v>
+        <v>-3.917298277900582</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.13967123717212</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.04465275657516</v>
+        <v>-13.61648208443935</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06403173935979012</v>
+        <v>0.1876623550942094</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.225360163766396</v>
+        <v>-3.823635943370874</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.5770934939467</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.34925509113688</v>
+        <v>-12.94382574903715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.155468382406405</v>
+        <v>0.259944959083379</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.296490645105494</v>
+        <v>-3.880940952909109</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.04201810958081</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.94671914796517</v>
+        <v>-12.55981541438648</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.01888181453686107</v>
+        <v>0.1231696712958668</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.523406437958291</v>
+        <v>-4.079655925440827</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.52589092711221</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.30265640196929</v>
+        <v>-11.96745417231258</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1356389712793742</v>
+        <v>-0.03362374753664462</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.91410693936108</v>
+        <v>-4.493634541296205</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.0349985341516</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.87629246762564</v>
+        <v>-11.53838013128069</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.169770604787754</v>
+        <v>-0.04710881946362247</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.052335472764024</v>
+        <v>-4.614528865736704</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.5505464933764</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.09228609655456</v>
+        <v>-10.76402278740396</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.210540035836889</v>
+        <v>-0.0898159113333329</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.501257444903969</v>
+        <v>-5.037200770678989</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-15.07842411143594</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.83946063637799</v>
+        <v>-10.5054890831884</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3781215122109827</v>
+        <v>-0.2514665745201247</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.485428850768322</v>
+        <v>-5.04616899812557</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-15.60612792316394</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.21241788407636</v>
+        <v>-9.886563558648641</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.3283707614124236</v>
+        <v>-0.2016896391158822</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.805561839854207</v>
+        <v>-5.355828144938076</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-16.12256652104256</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.922881606731588</v>
+        <v>-9.572518490384157</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4246777411161606</v>
+        <v>-0.3054985083479281</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.664623199763026</v>
+        <v>-5.232249898415023</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-16.62785764963234</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.342958052357332</v>
+        <v>-9.00669534617044</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4468299175243611</v>
+        <v>-0.3316176525171717</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.030958925577364</v>
+        <v>-5.604359329782562</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-17.0976593907164</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.865167552451382</v>
+        <v>-8.531562583741358</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.388425154547421</v>
+        <v>-0.283045208974368</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.070628603187794</v>
+        <v>-5.631813888841661</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-17.53617770401876</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.419544840627552</v>
+        <v>-8.080519658541055</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.403533672026773</v>
+        <v>-0.2940296510585761</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.052901625140096</v>
+        <v>-5.612843142024</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-17.92795653830091</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.065502787181595</v>
+        <v>-7.738443969892436</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5484523721818388</v>
+        <v>-0.4448791644009439</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.222695700694442</v>
+        <v>-5.787874138715035</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-18.26416172767637</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.714131563515351</v>
+        <v>-7.38197984042076</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4629596346253676</v>
+        <v>-0.369886453723537</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.448393909382958</v>
+        <v>-6.027895326712399</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-18.54670718331549</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.457260581760685</v>
+        <v>-7.127190534817929</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.586341496605794</v>
+        <v>-0.4918936239055822</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.373505937128285</v>
+        <v>-5.977031730172294</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-18.75763810734066</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.296447825955764</v>
+        <v>-6.963287995542361</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6821771534072288</v>
+        <v>-0.5863676812114775</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.464026118975979</v>
+        <v>-6.058806253721715</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.90852569966402</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.012109192839157</v>
+        <v>-6.683282914666365</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6507294419814028</v>
+        <v>-0.5378214222743573</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.408606401046952</v>
+        <v>-6.020799298572184</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.99147361611379</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.917268551053693</v>
+        <v>-6.573988370543636</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9546803447549153</v>
+        <v>-0.8346108353934455</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.439176928182382</v>
+        <v>-6.037230138638551</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-19.00840003431379</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.732418327231363</v>
+        <v>-6.390041515617384</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8444693394332652</v>
+        <v>-0.7356592105156798</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.248042398996024</v>
+        <v>-5.864123710465249</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.97022968045812</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.662662537690647</v>
+        <v>-6.314210897558107</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9193834962936218</v>
+        <v>-0.8062659997411086</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.133353826102503</v>
+        <v>-5.767842915367195</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.86846583521281</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.679041008545646</v>
+        <v>-6.334490874659941</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.05483646149412</v>
+        <v>-0.940737042228477</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.910562108644851</v>
+        <v>-5.57105251135321</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.72410585097217</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.739959493668197</v>
+        <v>-6.392463591643104</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.133010601762066</v>
+        <v>-0.995462868106892</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.764399639719821</v>
+        <v>-5.399517159520915</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.53591619466207</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.956493090367505</v>
+        <v>-6.610162403295325</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.00204829643628</v>
+        <v>-0.8740972207640914</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.602552591990404</v>
+        <v>-5.245643324222109</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-18.31463804150687</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.119754106803828</v>
+        <v>-6.784159108061864</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.359965671523387</v>
+        <v>-1.225154229162134</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.434080839023072</v>
+        <v>-5.075574310308087</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-18.07684374679997</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.573088185001436</v>
+        <v>-7.250271273832996</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.291990435169146</v>
+        <v>-1.162913421452568</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.166199230578515</v>
+        <v>-4.841942166097486</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.81882814369758</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.981738233600232</v>
+        <v>-7.671070979468913</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.371617821052524</v>
+        <v>-1.23300961086717</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.126333168425459</v>
+        <v>-4.779295496999826</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-17.56666800986091</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.573968552645709</v>
+        <v>-8.272190972143925</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.411627898536838</v>
+        <v>-1.277601994346089</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.786470078957092</v>
+        <v>-4.426942350620453</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-17.31788488012683</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.9886410605517</v>
+        <v>-8.68273940465477</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.454623021069067</v>
+        <v>-1.299793447662814</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.656803911612637</v>
+        <v>-4.288661448006142</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-17.08288396353845</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.41620948675679</v>
+        <v>-9.129357131494572</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.550694339321653</v>
+        <v>-1.411889744593673</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.3106434244774</v>
+        <v>-3.933414902698747</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-16.8706827527196</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.29656211444013</v>
+        <v>-10.00847908271079</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.563956842100321</v>
+        <v>-1.400093579733278</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.326642218549989</v>
+        <v>-3.946310820997847</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-16.67000755750155</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.02128653824388</v>
+        <v>-10.75038060784289</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.660525667860893</v>
+        <v>-1.485560132684066</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.111300021409279</v>
+        <v>-3.73865380562523</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-16.49741213845295</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.79721495846162</v>
+        <v>-11.53174233373994</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.792993588013477</v>
+        <v>-1.619743144508916</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.807702610812493</v>
+        <v>-3.413768310607797</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-16.33810476019889</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.99645680646088</v>
+        <v>-12.72604838356787</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.873576712004301</v>
+        <v>-1.68568907392269</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.657835020183255</v>
+        <v>-3.264856458086005</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-16.19661249539715</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.85363605811437</v>
+        <v>-13.59561295370963</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.921088679016925</v>
+        <v>-1.744578252104774</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.321807975447514</v>
+        <v>-2.930858720290731</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-16.07266368432299</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.94899048306454</v>
+        <v>-14.70633774219599</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.104236903469831</v>
+        <v>-1.928276353277033</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.077243758364071</v>
+        <v>-2.678321290776677</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-15.95522606046986</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.00407298447356</v>
+        <v>-15.75412783092217</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.128640955966808</v>
+        <v>-1.960352495239261</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.622404065339665</v>
+        <v>-2.247689265706624</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-15.86033958037669</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.38998488639016</v>
+        <v>-17.14344373157762</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.05067629254433</v>
+        <v>-1.895296842418725</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.376923387057301</v>
+        <v>-1.977739073413074</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-15.77646895440605</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.99277078487995</v>
+        <v>-18.76220223953431</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.28377165233842</v>
+        <v>-2.119921482274219</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.199313206706446</v>
+        <v>-1.795926263850024</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-15.71901948030758</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.55986706582319</v>
+        <v>-20.33406411871194</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.482067671179204</v>
+        <v>-2.326570390328023</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.94054384103973</v>
+        <v>-1.51031767735777</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-15.69236886673733</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.18991113882945</v>
+        <v>-22.01747241810108</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.617350436442759</v>
+        <v>-2.475796458118017</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.081508665736595</v>
+        <v>-1.646228873157728</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-15.69579680313049</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.80852563145489</v>
+        <v>-23.65572536498911</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.733610085677287</v>
+        <v>-2.590969446216681</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.879821740459804</v>
+        <v>-1.44395279425306</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-15.74711811772309</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.90321553231401</v>
+        <v>-25.75575692540765</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.818225638943362</v>
+        <v>-2.69586497658459</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.858756225187467</v>
+        <v>-1.416655342828061</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-15.83280693066449</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.09546927394967</v>
+        <v>-27.96323701524824</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.66127511247675</v>
+        <v>-2.540878295544237</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.921350525073759</v>
+        <v>-1.505342602277914</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.96459951682643</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.3396732732613</v>
+        <v>-30.21800650295314</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.090689553382523</v>
+        <v>-2.97825285657778</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.297466201110866</v>
+        <v>-1.864503746134985</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-16.13212681363399</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.57772389023733</v>
+        <v>-32.44673540030585</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.058443211483352</v>
+        <v>-2.981709224527996</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.564784840533229</v>
+        <v>-2.12569518782742</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-16.32021520208605</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.82734810292543</v>
+        <v>-34.69014076914414</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.306136488945968</v>
+        <v>-3.255835861428056</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.728975410471315</v>
+        <v>-2.297728047167701</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-16.52711636022639</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.32287194758684</v>
+        <v>-37.19090153494224</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.54576490785808</v>
+        <v>-3.509551598197866</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.200442328104713</v>
+        <v>-2.750014741137969</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-16.71992045108845</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.74556331153973</v>
+        <v>-39.63560105997207</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.486417499076536</v>
+        <v>-3.451997834905637</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.688431731924369</v>
+        <v>-3.227464841170036</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.90139723393716</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.30944206933778</v>
+        <v>-42.20579030773983</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.665022694443362</v>
+        <v>-3.628652277149047</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.948510327875257</v>
+        <v>-3.512968689239556</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-17.04424946756235</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.60141988171887</v>
+        <v>-44.50801939324599</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.850108579716844</v>
+        <v>-3.837801815045621</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.438332654092754</v>
+        <v>-4.020229962842232</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-17.14937444057166</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.92377183669277</v>
+        <v>-46.83052845585399</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.955907478980832</v>
+        <v>-3.964626952673422</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.740516095982634</v>
+        <v>-4.330661555522399</v>
       </c>
     </row>
   </sheetData>
